--- a/FCP-INDI_BIDS_Validator_log.xlsx
+++ b/FCP-INDI_BIDS_Validator_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lei.ai/Dropbox/Work&amp;Study/projects/AWS_INDI_Bucket_Clean/All_New_May_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC904E-1197-A64D-BBE1-C83E2A8D6D39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1B24D-B16B-1448-BB7A-1A2B45BE86F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{BC859685-EF12-524A-963F-744A0570B8DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Site</t>
   </si>
@@ -170,6 +170,81 @@
       </rPr>
       <t xml:space="preserve"> (RawDataBIDS)</t>
     </r>
+  </si>
+  <si>
+    <t>ABIDEII-BNI_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-GU_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-KKI_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-NYU_2</t>
+  </si>
+  <si>
+    <t>ABIDEII-SDSU_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-UCLA_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-USM_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-EMC_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-IP_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-KUL_3</t>
+  </si>
+  <si>
+    <t>ABIDEII-OHSU_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-TCD_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-UCLA_Long</t>
+  </si>
+  <si>
+    <t>ABIDEII-ETHZ_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-IU_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-NYU_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-ONRC_2</t>
+  </si>
+  <si>
+    <t>ABIDEII-UCD_1</t>
+  </si>
+  <si>
+    <t>ABIDEII-UPSM_Long</t>
+  </si>
+  <si>
+    <t>ABIDE2 (RawData)</t>
+  </si>
+  <si>
+    <t>DWI folder is very messy, ignored</t>
+  </si>
+  <si>
+    <t>pa_dirn_checklist.csv is ignored</t>
+  </si>
+  <si>
+    <t>ignored some files</t>
+  </si>
+  <si>
+    <t>ignored derivatives</t>
+  </si>
+  <si>
+    <t>Some DWI don't have bvec, their dwi folder are ignored,. Also derivatives</t>
   </si>
 </sst>
 </file>
@@ -545,17 +620,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651035A-E884-B448-9459-9718489EBDFB}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -828,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>29</v>
@@ -837,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -846,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>30</v>
@@ -855,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>31</v>
@@ -864,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>32</v>
@@ -873,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>33</v>
@@ -882,10 +957,202 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A15:A38"/>
+    <mergeCell ref="A42:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FCP-INDI_BIDS_Validator_log.xlsx
+++ b/FCP-INDI_BIDS_Validator_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lei.ai/Dropbox/Work&amp;Study/projects/AWS_INDI_Bucket_Clean/All_New_May_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1B24D-B16B-1448-BB7A-1A2B45BE86F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB377DFC-E546-B545-BC29-6AD9013DEC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{BC859685-EF12-524A-963F-744A0570B8DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Site</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>Some DWI don't have bvec, their dwi folder are ignored,. Also derivatives</t>
+  </si>
+  <si>
+    <t>CORR</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651035A-E884-B448-9459-9718489EBDFB}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D52"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1148,6 +1154,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A11"/>
